--- a/team_specific_matrix/NC State_B.xlsx
+++ b/team_specific_matrix/NC State_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1327014218009479</v>
+        <v>0.1201550387596899</v>
       </c>
       <c r="C2">
-        <v>0.6018957345971564</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01895734597156398</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1563981042654028</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09004739336492891</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="C3">
-        <v>0.01398601398601399</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05594405594405594</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7552447552447552</v>
+        <v>0.7401129943502824</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1678321678321678</v>
+        <v>0.1751412429378531</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1428571428571428</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6785714285714286</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1785714285714286</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06289308176100629</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02515723270440252</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05660377358490566</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.270440251572327</v>
+        <v>0.2694300518134715</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01886792452830189</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.169811320754717</v>
+        <v>0.1658031088082902</v>
       </c>
       <c r="R6">
-        <v>0.0440251572327044</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="S6">
-        <v>0.3522012578616352</v>
+        <v>0.3678756476683938</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1230769230769231</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03846153846153846</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06153846153846154</v>
+        <v>0.0625</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1230769230769231</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1307692307692308</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="R7">
-        <v>0.1230769230769231</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.4147727272727273</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1348973607038123</v>
+        <v>0.1316397228637413</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01466275659824047</v>
+        <v>0.01847575057736721</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07038123167155426</v>
+        <v>0.06928406466512702</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1378299120234604</v>
+        <v>0.1270207852193996</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02052785923753666</v>
+        <v>0.01616628175519631</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1847507331378299</v>
+        <v>0.1801385681293303</v>
       </c>
       <c r="R8">
-        <v>0.06158357771260997</v>
+        <v>0.06004618937644342</v>
       </c>
       <c r="S8">
-        <v>0.375366568914956</v>
+        <v>0.3972286374133949</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08799999999999999</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.024</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.056</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.064</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.16</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="R9">
-        <v>0.07199999999999999</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="S9">
-        <v>0.528</v>
+        <v>0.4753086419753086</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08748728382502544</v>
+        <v>0.08952702702702703</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01627670396744659</v>
+        <v>0.01942567567567568</v>
       </c>
       <c r="E10">
-        <v>0.001017293997965412</v>
+        <v>0.0008445945945945946</v>
       </c>
       <c r="F10">
-        <v>0.06510681586978637</v>
+        <v>0.0633445945945946</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1922685656154629</v>
+        <v>0.183277027027027</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02746693794506612</v>
+        <v>0.02449324324324324</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1932858596134283</v>
+        <v>0.1875</v>
       </c>
       <c r="R10">
-        <v>0.08240081383519837</v>
+        <v>0.08699324324324324</v>
       </c>
       <c r="S10">
-        <v>0.3346897253306205</v>
+        <v>0.3445945945945946</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1351351351351351</v>
+        <v>0.1440677966101695</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1243243243243243</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="K11">
-        <v>0.1351351351351351</v>
+        <v>0.1313559322033898</v>
       </c>
       <c r="L11">
-        <v>0.6054054054054054</v>
+        <v>0.6186440677966102</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7321428571428571</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2142857142857143</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03571428571428571</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01785714285714286</v>
+        <v>0.0272108843537415</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02702702702702703</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G13">
-        <v>0.6486486486486487</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2972972972972973</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1733333333333333</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="I15">
-        <v>0.04</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="J15">
-        <v>0.36</v>
+        <v>0.358695652173913</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006666666666666667</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2933333333333333</v>
+        <v>0.2717391304347826</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.08387096774193549</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1935483870967742</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="I16">
-        <v>0.09677419354838709</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="J16">
-        <v>0.3935483870967742</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="K16">
-        <v>0.07096774193548387</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03225806451612903</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02580645161290323</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1032258064516129</v>
+        <v>0.1210526315789474</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01246105919003115</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1588785046728972</v>
+        <v>0.182051282051282</v>
       </c>
       <c r="I17">
-        <v>0.09345794392523364</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J17">
-        <v>0.4205607476635514</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="K17">
-        <v>0.09968847352024922</v>
+        <v>0.09487179487179487</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02803738317757009</v>
+        <v>0.02820512820512821</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05607476635514019</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1308411214953271</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02941176470588235</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1323529411764706</v>
+        <v>0.1377245508982036</v>
       </c>
       <c r="I18">
-        <v>0.06617647058823529</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="J18">
-        <v>0.4264705882352941</v>
+        <v>0.4311377245508982</v>
       </c>
       <c r="K18">
-        <v>0.1544117647058824</v>
+        <v>0.1437125748502994</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02941176470588235</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05882352941176471</v>
+        <v>0.04790419161676647</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1029411764705882</v>
+        <v>0.1017964071856287</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007909604519774011</v>
+        <v>0.009777777777777778</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2350282485875706</v>
+        <v>0.232</v>
       </c>
       <c r="I19">
-        <v>0.07570621468926554</v>
+        <v>0.07644444444444444</v>
       </c>
       <c r="J19">
-        <v>0.3819209039548023</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="K19">
-        <v>0.103954802259887</v>
+        <v>0.1075555555555556</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02146892655367232</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N19">
-        <v>0.001129943502824859</v>
+        <v>0.0008888888888888889</v>
       </c>
       <c r="O19">
-        <v>0.05875706214689266</v>
+        <v>0.06044444444444445</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1141242937853107</v>
+        <v>0.1173333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/NC State_B.xlsx
+++ b/team_specific_matrix/NC State_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1201550387596899</v>
+        <v>0.1161971830985915</v>
       </c>
       <c r="C2">
-        <v>0.6162790697674418</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01937984496124031</v>
+        <v>0.0176056338028169</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1511627906976744</v>
+        <v>0.1443661971830986</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09302325581395349</v>
+        <v>0.0880281690140845</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01129943502824859</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C3">
-        <v>0.02259887005649718</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05084745762711865</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7401129943502824</v>
+        <v>0.7525252525252525</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1751412429378531</v>
+        <v>0.1717171717171717</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1578947368421053</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6842105263157895</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1578947368421053</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06217616580310881</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02072538860103627</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05181347150259067</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2694300518134715</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0155440414507772</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1658031088082902</v>
+        <v>0.1576576576576577</v>
       </c>
       <c r="R6">
-        <v>0.04663212435233161</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="S6">
-        <v>0.3678756476683938</v>
+        <v>0.3738738738738739</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1136363636363636</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04545454545454546</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0625</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1136363636363636</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1477272727272727</v>
+        <v>0.1608040201005025</v>
       </c>
       <c r="R7">
-        <v>0.1022727272727273</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="S7">
-        <v>0.4147727272727273</v>
+        <v>0.4020100502512563</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1316397228637413</v>
+        <v>0.1337448559670782</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01847575057736721</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06928406466512702</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1270207852193996</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01616628175519631</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1801385681293303</v>
+        <v>0.1831275720164609</v>
       </c>
       <c r="R8">
-        <v>0.06004618937644342</v>
+        <v>0.0720164609053498</v>
       </c>
       <c r="S8">
-        <v>0.3972286374133949</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1049382716049383</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02469135802469136</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06172839506172839</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08641975308641975</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006172839506172839</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1790123456790123</v>
+        <v>0.1925133689839572</v>
       </c>
       <c r="R9">
-        <v>0.06172839506172839</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S9">
-        <v>0.4753086419753086</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08952702702702703</v>
+        <v>0.08972392638036809</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01942567567567568</v>
+        <v>0.01917177914110429</v>
       </c>
       <c r="E10">
-        <v>0.0008445945945945946</v>
+        <v>0.001533742331288344</v>
       </c>
       <c r="F10">
-        <v>0.0633445945945946</v>
+        <v>0.06441717791411043</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.183277027027027</v>
+        <v>0.1748466257668712</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02449324324324324</v>
+        <v>0.02530674846625767</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1875</v>
+        <v>0.196319018404908</v>
       </c>
       <c r="R10">
-        <v>0.08699324324324324</v>
+        <v>0.08282208588957055</v>
       </c>
       <c r="S10">
-        <v>0.3445945945945946</v>
+        <v>0.3458588957055215</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1440677966101695</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1059322033898305</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K11">
-        <v>0.1313559322033898</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L11">
-        <v>0.6186440677966102</v>
+        <v>0.608058608058608</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7278911564625851</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.217687074829932</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="L12">
-        <v>0.0272108843537415</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0272108843537415</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2448979591836735</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02040816326530612</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02173913043478261</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1739130434782609</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="I15">
-        <v>0.04347826086956522</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J15">
-        <v>0.358695652173913</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="K15">
-        <v>0.07065217391304347</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01630434782608696</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04347826086956522</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2717391304347826</v>
+        <v>0.2952380952380952</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.08947368421052632</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2052631578947368</v>
+        <v>0.2065727699530517</v>
       </c>
       <c r="I16">
-        <v>0.08947368421052632</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="J16">
-        <v>0.3736842105263158</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="K16">
-        <v>0.07368421052631578</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02631578947368421</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02105263157894737</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1210526315789474</v>
+        <v>0.1220657276995305</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01025641025641026</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.182051282051282</v>
+        <v>0.1755555555555555</v>
       </c>
       <c r="I17">
-        <v>0.1025641025641026</v>
+        <v>0.1088888888888889</v>
       </c>
       <c r="J17">
-        <v>0.3974358974358974</v>
+        <v>0.3977777777777778</v>
       </c>
       <c r="K17">
-        <v>0.09487179487179487</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02820512820512821</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05641025641025641</v>
+        <v>0.06</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1282051282051282</v>
+        <v>0.1311111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02395209580838323</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1377245508982036</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="I18">
-        <v>0.07784431137724551</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="J18">
-        <v>0.4311377245508982</v>
+        <v>0.4216216216216216</v>
       </c>
       <c r="K18">
-        <v>0.1437125748502994</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03592814371257485</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04790419161676647</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1017964071856287</v>
+        <v>0.1027027027027027</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009777777777777778</v>
+        <v>0.01193317422434368</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.232</v>
+        <v>0.233890214797136</v>
       </c>
       <c r="I19">
-        <v>0.07644444444444444</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="J19">
-        <v>0.3733333333333334</v>
+        <v>0.3707239459029435</v>
       </c>
       <c r="K19">
-        <v>0.1075555555555556</v>
+        <v>0.1081941129673827</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02222222222222222</v>
+        <v>0.02068416865552904</v>
       </c>
       <c r="N19">
-        <v>0.0008888888888888889</v>
+        <v>0.0007955449482895784</v>
       </c>
       <c r="O19">
-        <v>0.06044444444444445</v>
+        <v>0.05727923627684964</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1173333333333333</v>
+        <v>0.1177406523468576</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/NC State_B.xlsx
+++ b/team_specific_matrix/NC State_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1161971830985915</v>
+        <v>0.1172413793103448</v>
       </c>
       <c r="C2">
-        <v>0.6338028169014085</v>
+        <v>0.6275862068965518</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0176056338028169</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1443661971830986</v>
+        <v>0.1482758620689655</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0880281690140845</v>
+        <v>0.0896551724137931</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0101010101010101</v>
+        <v>0.015</v>
       </c>
       <c r="C3">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04545454545454546</v>
+        <v>0.045</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7525252525252525</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1717171717171717</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1428571428571428</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6904761904761905</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1666666666666667</v>
+        <v>0.186046511627907</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06756756756756757</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01801801801801802</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05405405405405406</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2702702702702703</v>
+        <v>0.2723214285714285</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01801801801801802</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1576576576576577</v>
+        <v>0.15625</v>
       </c>
       <c r="R6">
-        <v>0.04054054054054054</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="S6">
-        <v>0.3738738738738739</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1055276381909548</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005025125628140704</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04522613065326633</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07035175879396985</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1055276381909548</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1608040201005025</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="R7">
-        <v>0.1055276381909548</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="S7">
-        <v>0.4020100502512563</v>
+        <v>0.3951219512195122</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1337448559670782</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0205761316872428</v>
+        <v>0.02169625246548323</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06790123456790123</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1172839506172839</v>
+        <v>0.1222879684418146</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01646090534979424</v>
+        <v>0.01577909270216963</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1831275720164609</v>
+        <v>0.1873767258382643</v>
       </c>
       <c r="R8">
-        <v>0.0720164609053498</v>
+        <v>0.07297830374753451</v>
       </c>
       <c r="S8">
-        <v>0.3888888888888889</v>
+        <v>0.3865877712031558</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09625668449197861</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0213903743315508</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0748663101604278</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08021390374331551</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0213903743315508</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1925133689839572</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.05882352941176471</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="S9">
-        <v>0.4545454545454545</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08972392638036809</v>
+        <v>0.08895478131949593</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01917177914110429</v>
+        <v>0.01853224610822832</v>
       </c>
       <c r="E10">
-        <v>0.001533742331288344</v>
+        <v>0.002223869532987398</v>
       </c>
       <c r="F10">
-        <v>0.06441717791411043</v>
+        <v>0.06300963676797627</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1748466257668712</v>
+        <v>0.1779095626389919</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02530674846625767</v>
+        <v>0.02446256486286138</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.196319018404908</v>
+        <v>0.1979243884358784</v>
       </c>
       <c r="R10">
-        <v>0.08282208588957055</v>
+        <v>0.083765752409192</v>
       </c>
       <c r="S10">
-        <v>0.3458588957055215</v>
+        <v>0.3432171979243884</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1538461538461539</v>
+        <v>0.1619718309859155</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09523809523809523</v>
+        <v>0.09507042253521127</v>
       </c>
       <c r="K11">
-        <v>0.1428571428571428</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L11">
-        <v>0.608058608058608</v>
+        <v>0.5880281690140845</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7261904761904762</v>
+        <v>0.727810650887574</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2142857142857143</v>
+        <v>0.2130177514792899</v>
       </c>
       <c r="K12">
-        <v>0.005952380952380952</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="L12">
-        <v>0.02976190476190476</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02380952380952381</v>
+        <v>0.02366863905325444</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G13">
-        <v>0.7058823529411765</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01904761904761905</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1523809523809524</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="I15">
-        <v>0.04761904761904762</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="J15">
-        <v>0.3523809523809524</v>
+        <v>0.3440366972477064</v>
       </c>
       <c r="K15">
-        <v>0.07142857142857142</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01428571428571429</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04761904761904762</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2952380952380952</v>
+        <v>0.2844036697247707</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0892018779342723</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2065727699530517</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="I16">
-        <v>0.07981220657276995</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="J16">
-        <v>0.3661971830985916</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K16">
-        <v>0.08450704225352113</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02347417840375587</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02816901408450704</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1220657276995305</v>
+        <v>0.1203703703703704</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01111111111111111</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1755555555555555</v>
+        <v>0.173728813559322</v>
       </c>
       <c r="I17">
-        <v>0.1088888888888889</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="J17">
-        <v>0.3977777777777778</v>
+        <v>0.4004237288135593</v>
       </c>
       <c r="K17">
-        <v>0.08888888888888889</v>
+        <v>0.08898305084745763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02666666666666667</v>
+        <v>0.02754237288135593</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1311111111111111</v>
+        <v>0.1313559322033898</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02162162162162162</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1567567567567568</v>
+        <v>0.1606217616580311</v>
       </c>
       <c r="I18">
-        <v>0.07567567567567568</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="J18">
-        <v>0.4216216216216216</v>
+        <v>0.4145077720207254</v>
       </c>
       <c r="K18">
-        <v>0.1405405405405405</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03243243243243243</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04864864864864865</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1027027027027027</v>
+        <v>0.1088082901554404</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01193317422434368</v>
+        <v>0.01160990712074303</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.233890214797136</v>
+        <v>0.2360681114551084</v>
       </c>
       <c r="I19">
-        <v>0.07875894988066826</v>
+        <v>0.07662538699690402</v>
       </c>
       <c r="J19">
-        <v>0.3707239459029435</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="K19">
-        <v>0.1081941129673827</v>
+        <v>0.1075851393188854</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02068416865552904</v>
+        <v>0.02012383900928793</v>
       </c>
       <c r="N19">
-        <v>0.0007955449482895784</v>
+        <v>0.0007739938080495357</v>
       </c>
       <c r="O19">
-        <v>0.05727923627684964</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1177406523468576</v>
+        <v>0.1207430340557276</v>
       </c>
     </row>
   </sheetData>
